--- a/Inputs/Fidelity_United_Nextcare/benefits1.xlsx
+++ b/Inputs/Fidelity_United_Nextcare/benefits1.xlsx
@@ -168,28 +168,23 @@
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 15,000 with $ co-pay/ Diagnostics covered in full with NIL co-pay
-Consultations covered with AED 50
+    <t xml:space="preserve">Medicines covered up to AED 15,000 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 10,000 with $ co-pay/ Diagnostics covered in full with NIL co-pay
-Consultations covered with AED 50
+    <t xml:space="preserve">Medicines covered up to AED 10,000 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 7,500 with $ co-pay/ Diagnostics covered in full with NIL co-pay
-Consultations covered with AED 50
+    <t xml:space="preserve">Medicines covered up to AED 7,500 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 5,000 with $ co-pay/ Diagnostics covered in full with NIL co-pay
-Consultations covered with AED 50
+    <t xml:space="preserve">Medicines covered up to AED 5,000 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 1,500 with $ co-pay/ Diagnostics covered in full with NIL co-pay
-Consultations covered with AED 50
+    <t xml:space="preserve">Medicines covered up to AED 1,500 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
 </t>
   </si>
   <si>
@@ -209,13 +204,13 @@
     <t xml:space="preserve">Covered up to AED 15,000 with $ co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 10,000 with $co-pay</t>
+    <t xml:space="preserve">Covered up to AED 10,000 with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 7,500 with $ co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 5,000 with$ co-pay</t>
+    <t xml:space="preserve">Covered up to AED 5,000 with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 5,000 subject to $ co-pay</t>
@@ -430,7 +425,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;AED&quot;#,##0_);[RED]&quot;(AED&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -483,12 +478,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -622,7 +611,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,7 +619,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,15 +643,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -686,7 +675,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,11 +687,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -785,20 +774,20 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="43.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="44.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="9" style="1" width="10.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="29" style="1" width="10.14"/>
   </cols>
@@ -1183,7 +1172,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="50.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
@@ -3065,7 +3054,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.43"/>
   </cols>

--- a/Inputs/Fidelity_United_Nextcare/benefits1.xlsx
+++ b/Inputs/Fidelity_United_Nextcare/benefits1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="122">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -29,22 +29,22 @@
     <t xml:space="preserve">Benefit</t>
   </si>
   <si>
-    <t xml:space="preserve">Plan 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan 6</t>
+    <t xml:space="preserve">GN+ Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN Limited Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN2 Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN3 Plan</t>
   </si>
   <si>
     <t xml:space="preserve">none</t>
@@ -56,18 +56,6 @@
     <t xml:space="preserve">AED 1,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 750,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 5,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 300,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 250,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Geographical Coverage</t>
   </si>
   <si>
@@ -83,16 +71,16 @@
     <t xml:space="preserve">Nextcare GN</t>
   </si>
   <si>
+    <t xml:space="preserve">Nextcare GN- Excluding Mediclinic- Al Zahra Hospital - Suleiman al Habib group of providers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nextcare RN</t>
   </si>
   <si>
     <t xml:space="preserve">Nextcare RN2</t>
   </si>
   <si>
-    <t xml:space="preserve">Nextcare RN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nextcare PCP AUH</t>
+    <t xml:space="preserve">Nextcare RN3 (OP restricted to clinics only)</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -119,34 +107,37 @@
     <t xml:space="preserve">Chronic Condition Cover</t>
   </si>
   <si>
+    <t xml:space="preserve">Covered up to AED 150,000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-existing Condition Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 150,000 subject to declaration
+*Waiting period of 6 months applicable if evidence of COC is not provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery) type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accommodation Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi- Private Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered in full</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-existing Condition Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full
-*Waiting period of 6 months applicable if evidence of COC is not provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery) type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accommodation Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi- Private Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diagnostics &amp; Test</t>
   </si>
   <si>
@@ -156,6 +147,9 @@
     <t xml:space="preserve">Oncology</t>
   </si>
   <si>
+    <t xml:space="preserve">Covered for members enrolled under BASMAH initiative</t>
+  </si>
+  <si>
     <t xml:space="preserve">Organ Transplant</t>
   </si>
   <si>
@@ -168,31 +162,30 @@
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 15,000 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
+    <t xml:space="preserve">Medicines covered up to AED 15,000 with $  co-pay/ Diagnostics covered in full with $ co-pay
+Consultations covered with $ 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 10,000 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
+    <t xml:space="preserve">Medicines covered up to AED 10,000 with $  co-pay/ Diagnostics covered in full with $ co-pay
+Consultations covered with $ 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 7,500 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
+    <t xml:space="preserve">Medicines covered up to AED 7,500 with $  co-pay/ Diagnostics covered in full with $ co-pay
+Consultations covered with $ 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 5,000 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
+    <t xml:space="preserve">Medicines covered up to AED 5,000 with $  co-pay/ Diagnostics covered in full with $ co-pay
+Consultations covered with $ 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 1,500 with $ co-pay/ Diagnostics covered in full with NIL co-pay Consultations covered with AED 50
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Out-patient Consultations</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 50
-</t>
+    <t xml:space="preserve">$copay</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient Specialists</t>
@@ -201,22 +194,19 @@
     <t xml:space="preserve">Out-patient Medicines</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 15,000 with $ co-pay</t>
+    <t xml:space="preserve">Covered up to AED 15,000 with $  co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 10,000 with $ co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 7,500 with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 5,000 with $ co-pay</t>
+    <t xml:space="preserve">Covered up to AED 10,000 with $  co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 7,500 with$ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 5,000 subject to $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 1,500 subject to $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Vaccination</t>
@@ -230,13 +220,22 @@
     <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with  NIL  co-pay</t>
+    <t xml:space="preserve">Covered in full with $  co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Physiotherapy</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered subject to pre-approval</t>
+    <t xml:space="preserve">20 sessions per year subject to pre-approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 sessions per year subject to pre-approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 sessions per year subject to pre-approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 sessions per year subject to pre-approval</t>
   </si>
   <si>
     <t xml:space="preserve">Maternity</t>
@@ -245,14 +244,17 @@
     <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
   </si>
   <si>
-    <t xml:space="preserve">OP:  Covered in full
-IP: Inside AUH- Covered in full with AED 500 deductible
-Outside AUH- Normal Delivery covered up to AED 10,000 and C-section covered up up AED 12,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP:  Covered in full
-IP: Inside AUH- Covered in full with AED 500 deductible
+    <t xml:space="preserve">OP- 15 visits and 8 ante-natal ultrasound scans with 10% co-pay
+Delivery- Covered up to AED 20,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- 12 visits and 6 ante-natal ultrasound scans with 10% co-pay
+Delivery- Covered up to AED 12,500 with 10% co-pay
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- 10 visits and 4 ante-natal ultrasound scans with 10% co-pay
+Delivery covered up to AED 10,000 with 10% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Maternity Waiting Period</t>
@@ -291,7 +293,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Not Available
+    <t xml:space="preserve">Covered up to AED 500 with 30% co-pay
 </t>
   </si>
   <si>
@@ -301,80 +303,70 @@
     <t xml:space="preserve">No Wait</t>
   </si>
   <si>
+    <t xml:space="preserve">No wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered subject to 20% co-pay and up to AED 1,500 with sub limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered subject to 20% co-pay and up to AED 1,250 with sub limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered subject to 20% co-pay and up to AED 1,000 with sub limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellness &amp; Health Screening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative Medicines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to AED 2,500 with 20% co-pay
+*The claims will be settled on reimbursement basis, and only from providers which are recognized and approved by Nextcare as alternative preferred providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Health Benefit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP and OP Psychiatric treatment covered up to AED 10,000 with 20% co-pay on OP services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency Evacuation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual / Tele Doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member Web Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modes of Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi Annual Surcharge</t>
+  </si>
+  <si>
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Additional Benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optical Benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered subject to 20% co-pay and up to AED 1,500 with sub limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered subject to 20% co-pay and up to AED 1,250 with sub limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered subject to 20% co-pay and up to AED 1,000 with sub limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellness &amp; Health Screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative Medicines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 2,500 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 2,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 1,500 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 1,000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental Health Benefit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP covered up to AED 10,000
-OP covered up to AED 3,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP covered up to AED 6,000
-OP covered up to AED 1,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Evacuation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual / Tele Doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member Web Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modes of Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi Annual Surcharge</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quarterly Surcharge</t>
   </si>
   <si>
@@ -384,13 +376,35 @@
     <t xml:space="preserve">Copays</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations AED 50, medicines 15% co-pay/Consultations AED 50, medicines 20% co-pay/Consultations AED 50, medicines nil co-pay</t>
+    <t xml:space="preserve">Consultations 20% with AED 50 max, medicines 15% co-pay, diagnostics 10% co-pay/Consultations 20% with AED 50 max, medicines 20% co-pay, diagnostics 20% co-pay/Consultations nil co-pay, medicines and diagnostics nil co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">$</t>
   </si>
   <si>
-    <t xml:space="preserve">15%-20%-Nil</t>
+    <t xml:space="preserve">15%/10%/20% with AED 50 max-20%/20%/20% with AED 50 max-Nil/Nil/Nil</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nil co-pay-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">20% up to max AED 50-20% up to max AED 50</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">In-patient only</t>
@@ -421,11 +435,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;AED&quot;#,##0_);[RED]&quot;(AED&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -495,6 +508,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -509,7 +529,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,8 +542,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -535,13 +561,6 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -578,7 +597,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,15 +627,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -655,15 +670,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,12 +682,20 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -687,11 +706,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -749,7 +772,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -774,20 +797,20 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="55.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="43.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="44.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="9" style="1" width="10.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="29" style="1" width="10.14"/>
   </cols>
@@ -818,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="125.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -828,20 +851,20 @@
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -849,25 +872,25 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -875,33 +898,33 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -911,89 +934,89 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>28</v>
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>33</v>
+      <c r="E8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1004,166 +1027,166 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>31</v>
+      <c r="H11" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1172,194 +1195,194 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="18" t="s">
+    <row r="17" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="H17" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="C18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="D18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="E18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>53</v>
+      <c r="C19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>61</v>
+      <c r="H20" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1368,115 +1391,115 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="62.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="11" t="s">
+    <row r="25" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C29" s="2"/>
@@ -1488,61 +1511,61 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="9" t="s">
+      <c r="G31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="2"/>
@@ -1554,33 +1577,33 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>93</v>
@@ -1594,74 +1617,74 @@
       <c r="E34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="C36" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="D36" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>92</v>
@@ -1672,48 +1695,48 @@
       <c r="E37" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>105</v>
+        <v>22</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1724,62 +1747,62 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1790,303 +1813,330 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" s="26" customFormat="true" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" s="26" customFormat="true" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" s="26" customFormat="true" ht="66.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D47" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" s="26" customFormat="true" ht="66.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H50" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27" t="s">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B51" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="s">
+      <c r="C52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B53" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H50" s="9" t="s">
+      <c r="C53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="E54" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="F54" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="G54" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="H54" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="51.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C57" s="26"/>
+    </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3026,12 +3076,12 @@
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3050,11 +3100,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.43"/>
   </cols>
